--- a/data/cleaned_data/2020_TX.xlsx
+++ b/data/cleaned_data/2020_TX.xlsx
@@ -2148,7 +2148,7 @@
         <v>262</v>
       </c>
       <c r="D2">
-        <v>269</v>
+        <v>399</v>
       </c>
       <c r="E2" t="s">
         <v>311</v>
@@ -2174,7 +2174,7 @@
         <v>263</v>
       </c>
       <c r="D3">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="E3" t="s">
         <v>312</v>
@@ -2200,7 +2200,7 @@
         <v>264</v>
       </c>
       <c r="D4">
-        <v>464</v>
+        <v>701</v>
       </c>
       <c r="E4" t="s">
         <v>313</v>
@@ -2226,7 +2226,7 @@
         <v>265</v>
       </c>
       <c r="D5">
-        <v>82</v>
+        <v>171</v>
       </c>
       <c r="E5" t="s">
         <v>314</v>
@@ -2252,7 +2252,7 @@
         <v>263</v>
       </c>
       <c r="D6">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
         <v>315</v>
@@ -2278,7 +2278,7 @@
         <v>266</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
         <v>280</v>
@@ -2304,7 +2304,7 @@
         <v>264</v>
       </c>
       <c r="D8">
-        <v>139</v>
+        <v>232</v>
       </c>
       <c r="E8" t="s">
         <v>316</v>
@@ -2330,7 +2330,7 @@
         <v>267</v>
       </c>
       <c r="D9">
-        <v>136</v>
+        <v>234</v>
       </c>
       <c r="E9" t="s">
         <v>317</v>
@@ -2356,7 +2356,7 @@
         <v>266</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
         <v>318</v>
@@ -2376,7 +2376,7 @@
         <v>268</v>
       </c>
       <c r="D11">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="E11" t="s">
         <v>319</v>
@@ -2402,7 +2402,7 @@
         <v>269</v>
       </c>
       <c r="D12">
-        <v>387</v>
+        <v>678</v>
       </c>
       <c r="E12" t="s">
         <v>320</v>
@@ -2428,7 +2428,7 @@
         <v>270</v>
       </c>
       <c r="D13">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
         <v>321</v>
@@ -2448,7 +2448,7 @@
         <v>262</v>
       </c>
       <c r="D14">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="E14" t="s">
         <v>322</v>
@@ -2474,7 +2474,7 @@
         <v>271</v>
       </c>
       <c r="D15">
-        <v>1658</v>
+        <v>2633</v>
       </c>
       <c r="E15" t="s">
         <v>323</v>
@@ -2500,7 +2500,7 @@
         <v>272</v>
       </c>
       <c r="D16">
-        <v>12069</v>
+        <v>16194</v>
       </c>
       <c r="E16" t="s">
         <v>324</v>
@@ -2526,7 +2526,7 @@
         <v>273</v>
       </c>
       <c r="D17">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="E17" t="s">
         <v>325</v>
@@ -2546,7 +2546,7 @@
         <v>270</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
         <v>267</v>
@@ -2566,7 +2566,7 @@
         <v>273</v>
       </c>
       <c r="D19">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
         <v>326</v>
@@ -2586,7 +2586,7 @@
         <v>274</v>
       </c>
       <c r="D20">
-        <v>627</v>
+        <v>981</v>
       </c>
       <c r="E20" t="s">
         <v>327</v>
@@ -2612,7 +2612,7 @@
         <v>275</v>
       </c>
       <c r="D21">
-        <v>1185</v>
+        <v>1879</v>
       </c>
       <c r="E21" t="s">
         <v>328</v>
@@ -2638,7 +2638,7 @@
         <v>276</v>
       </c>
       <c r="D22">
-        <v>661</v>
+        <v>1430</v>
       </c>
       <c r="E22" t="s">
         <v>329</v>
@@ -2664,7 +2664,7 @@
         <v>263</v>
       </c>
       <c r="D23">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E23" t="s">
         <v>330</v>
@@ -2684,7 +2684,7 @@
         <v>277</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E24" t="s">
         <v>278</v>
@@ -2704,7 +2704,7 @@
         <v>263</v>
       </c>
       <c r="D25">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="E25" t="s">
         <v>331</v>
@@ -2724,7 +2724,7 @@
         <v>262</v>
       </c>
       <c r="D26">
-        <v>178</v>
+        <v>255</v>
       </c>
       <c r="E26" t="s">
         <v>332</v>
@@ -2750,7 +2750,7 @@
         <v>273</v>
       </c>
       <c r="D27">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="E27" t="s">
         <v>333</v>
@@ -2776,7 +2776,7 @@
         <v>267</v>
       </c>
       <c r="D28">
-        <v>217</v>
+        <v>351</v>
       </c>
       <c r="E28" t="s">
         <v>334</v>
@@ -2796,7 +2796,7 @@
         <v>278</v>
       </c>
       <c r="D29">
-        <v>200</v>
+        <v>302</v>
       </c>
       <c r="E29" t="s">
         <v>335</v>
@@ -2822,7 +2822,7 @@
         <v>263</v>
       </c>
       <c r="D30">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="E30" t="s">
         <v>336</v>
@@ -2848,7 +2848,7 @@
         <v>262</v>
       </c>
       <c r="D31">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="E31" t="s">
         <v>337</v>
@@ -2874,7 +2874,7 @@
         <v>269</v>
       </c>
       <c r="D32">
-        <v>2271</v>
+        <v>2832</v>
       </c>
       <c r="E32" t="s">
         <v>338</v>
@@ -2900,7 +2900,7 @@
         <v>273</v>
       </c>
       <c r="D33">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="E33" t="s">
         <v>339</v>
@@ -2926,7 +2926,7 @@
         <v>264</v>
       </c>
       <c r="D34">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="E34" t="s">
         <v>340</v>
@@ -2952,7 +2952,7 @@
         <v>278</v>
       </c>
       <c r="D35">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="E35" t="s">
         <v>341</v>
@@ -2972,7 +2972,7 @@
         <v>265</v>
       </c>
       <c r="D36">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E36" t="s">
         <v>342</v>
@@ -2992,7 +2992,7 @@
         <v>279</v>
       </c>
       <c r="D37">
-        <v>292</v>
+        <v>423</v>
       </c>
       <c r="E37" t="s">
         <v>343</v>
@@ -3018,7 +3018,7 @@
         <v>278</v>
       </c>
       <c r="D38">
-        <v>225</v>
+        <v>331</v>
       </c>
       <c r="E38" t="s">
         <v>344</v>
@@ -3044,7 +3044,7 @@
         <v>265</v>
       </c>
       <c r="D39">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E39" t="s">
         <v>271</v>
@@ -3064,7 +3064,7 @@
         <v>268</v>
       </c>
       <c r="D40">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="E40" t="s">
         <v>345</v>
@@ -3090,7 +3090,7 @@
         <v>277</v>
       </c>
       <c r="D41">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E41" t="s">
         <v>346</v>
@@ -3110,7 +3110,7 @@
         <v>265</v>
       </c>
       <c r="D42">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E42" t="s">
         <v>295</v>
@@ -3130,7 +3130,7 @@
         <v>270</v>
       </c>
       <c r="D43">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E43" t="s">
         <v>347</v>
@@ -3150,7 +3150,7 @@
         <v>280</v>
       </c>
       <c r="D44">
-        <v>3298</v>
+        <v>4825</v>
       </c>
       <c r="E44" t="s">
         <v>348</v>
@@ -3176,7 +3176,7 @@
         <v>277</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E45" t="s">
         <v>276</v>
@@ -3196,7 +3196,7 @@
         <v>264</v>
       </c>
       <c r="D46">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="E46" t="s">
         <v>349</v>
@@ -3216,7 +3216,7 @@
         <v>281</v>
       </c>
       <c r="D47">
-        <v>624</v>
+        <v>940</v>
       </c>
       <c r="E47" t="s">
         <v>350</v>
@@ -3242,7 +3242,7 @@
         <v>263</v>
       </c>
       <c r="D48">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="E48" t="s">
         <v>351</v>
@@ -3262,7 +3262,7 @@
         <v>265</v>
       </c>
       <c r="D49">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="E49" t="s">
         <v>352</v>
@@ -3282,7 +3282,7 @@
         <v>268</v>
       </c>
       <c r="D50">
-        <v>138</v>
+        <v>189</v>
       </c>
       <c r="E50" t="s">
         <v>353</v>
@@ -3308,7 +3308,7 @@
         <v>278</v>
       </c>
       <c r="D51">
-        <v>173</v>
+        <v>307</v>
       </c>
       <c r="E51" t="s">
         <v>354</v>
@@ -3334,7 +3334,7 @@
         <v>277</v>
       </c>
       <c r="D52">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
         <v>355</v>
@@ -3354,7 +3354,7 @@
         <v>273</v>
       </c>
       <c r="D53">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E53" t="s">
         <v>356</v>
@@ -3374,7 +3374,7 @@
         <v>264</v>
       </c>
       <c r="D54">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="E54" t="s">
         <v>357</v>
@@ -3394,7 +3394,7 @@
         <v>265</v>
       </c>
       <c r="D55">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E55" t="s">
         <v>310</v>
@@ -3420,7 +3420,7 @@
         <v>270</v>
       </c>
       <c r="D56">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E56" t="s">
         <v>358</v>
@@ -3440,7 +3440,7 @@
         <v>270</v>
       </c>
       <c r="D57">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E57" t="s">
         <v>340</v>
@@ -3460,7 +3460,7 @@
         <v>282</v>
       </c>
       <c r="D58">
-        <v>16155</v>
+        <v>23173</v>
       </c>
       <c r="E58" t="s">
         <v>359</v>
@@ -3486,7 +3486,7 @@
         <v>266</v>
       </c>
       <c r="D59">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="E59" t="s">
         <v>360</v>
@@ -3512,7 +3512,7 @@
         <v>263</v>
       </c>
       <c r="D60">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="E60" t="s">
         <v>336</v>
@@ -3538,7 +3538,7 @@
         <v>277</v>
       </c>
       <c r="D61">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E61" t="s">
         <v>306</v>
@@ -3558,7 +3558,7 @@
         <v>283</v>
       </c>
       <c r="D62">
-        <v>2573</v>
+        <v>3803</v>
       </c>
       <c r="E62" t="s">
         <v>361</v>
@@ -3584,7 +3584,7 @@
         <v>268</v>
       </c>
       <c r="D63">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E63" t="s">
         <v>362</v>
@@ -3604,7 +3604,7 @@
         <v>265</v>
       </c>
       <c r="D64">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E64" t="s">
         <v>309</v>
@@ -3624,7 +3624,7 @@
         <v>273</v>
       </c>
       <c r="D65">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="E65" t="s">
         <v>363</v>
@@ -3644,7 +3644,7 @@
         <v>270</v>
       </c>
       <c r="D66">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E66" t="s">
         <v>364</v>
@@ -3664,7 +3664,7 @@
         <v>265</v>
       </c>
       <c r="D67">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E67" t="s">
         <v>365</v>
@@ -3690,7 +3690,7 @@
         <v>284</v>
       </c>
       <c r="D68">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="E68" t="s">
         <v>366</v>
@@ -3710,7 +3710,7 @@
         <v>283</v>
       </c>
       <c r="D69">
-        <v>751</v>
+        <v>1348</v>
       </c>
       <c r="E69" t="s">
         <v>367</v>
@@ -3736,7 +3736,7 @@
         <v>277</v>
       </c>
       <c r="D70">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E70" t="s">
         <v>293</v>
@@ -3756,7 +3756,7 @@
         <v>285</v>
       </c>
       <c r="D71">
-        <v>813</v>
+        <v>1148</v>
       </c>
       <c r="E71" t="s">
         <v>368</v>
@@ -3782,7 +3782,7 @@
         <v>286</v>
       </c>
       <c r="D72">
-        <v>3546</v>
+        <v>5078</v>
       </c>
       <c r="E72" t="s">
         <v>369</v>
@@ -3808,7 +3808,7 @@
         <v>267</v>
       </c>
       <c r="D73">
-        <v>119</v>
+        <v>248</v>
       </c>
       <c r="E73" t="s">
         <v>370</v>
@@ -3834,7 +3834,7 @@
         <v>273</v>
       </c>
       <c r="D74">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="E74" t="s">
         <v>371</v>
@@ -3860,7 +3860,7 @@
         <v>287</v>
       </c>
       <c r="D75">
-        <v>120</v>
+        <v>185</v>
       </c>
       <c r="E75" t="s">
         <v>372</v>
@@ -3886,7 +3886,7 @@
         <v>274</v>
       </c>
       <c r="D76">
-        <v>96</v>
+        <v>181</v>
       </c>
       <c r="E76" t="s">
         <v>373</v>
@@ -3906,7 +3906,7 @@
         <v>265</v>
       </c>
       <c r="D77">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E77" t="s">
         <v>374</v>
@@ -3926,7 +3926,7 @@
         <v>265</v>
       </c>
       <c r="D78">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E78" t="s">
         <v>301</v>
@@ -3946,7 +3946,7 @@
         <v>277</v>
       </c>
       <c r="D79">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E79" t="s">
         <v>305</v>
@@ -3966,7 +3966,7 @@
         <v>288</v>
       </c>
       <c r="D80">
-        <v>2143</v>
+        <v>2996</v>
       </c>
       <c r="E80" t="s">
         <v>375</v>
@@ -3992,7 +3992,7 @@
         <v>266</v>
       </c>
       <c r="D81">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="E81" t="s">
         <v>376</v>
@@ -4012,7 +4012,7 @@
         <v>279</v>
       </c>
       <c r="D82">
-        <v>104</v>
+        <v>186</v>
       </c>
       <c r="E82" t="s">
         <v>377</v>
@@ -4032,7 +4032,7 @@
         <v>273</v>
       </c>
       <c r="D83">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="E83" t="s">
         <v>378</v>
@@ -4058,7 +4058,7 @@
         <v>287</v>
       </c>
       <c r="D84">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="E84" t="s">
         <v>345</v>
@@ -4078,7 +4078,7 @@
         <v>289</v>
       </c>
       <c r="D85">
-        <v>1496</v>
+        <v>2180</v>
       </c>
       <c r="E85" t="s">
         <v>379</v>
@@ -4104,7 +4104,7 @@
         <v>266</v>
       </c>
       <c r="D86">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="E86" t="s">
         <v>380</v>
@@ -4124,7 +4124,7 @@
         <v>268</v>
       </c>
       <c r="D87">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="E87" t="s">
         <v>381</v>
@@ -4150,7 +4150,7 @@
         <v>265</v>
       </c>
       <c r="D88">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E88" t="s">
         <v>346</v>
@@ -4170,7 +4170,7 @@
         <v>263</v>
       </c>
       <c r="D89">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E89" t="s">
         <v>283</v>
@@ -4196,7 +4196,7 @@
         <v>278</v>
       </c>
       <c r="D90">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="E90" t="s">
         <v>382</v>
@@ -4216,7 +4216,7 @@
         <v>268</v>
       </c>
       <c r="D91">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="E91" t="s">
         <v>383</v>
@@ -4242,7 +4242,7 @@
         <v>281</v>
       </c>
       <c r="D92">
-        <v>602</v>
+        <v>950</v>
       </c>
       <c r="E92" t="s">
         <v>384</v>
@@ -4268,7 +4268,7 @@
         <v>290</v>
       </c>
       <c r="D93">
-        <v>1002</v>
+        <v>1380</v>
       </c>
       <c r="E93" t="s">
         <v>385</v>
@@ -4294,7 +4294,7 @@
         <v>279</v>
       </c>
       <c r="D94">
-        <v>134</v>
+        <v>283</v>
       </c>
       <c r="E94" t="s">
         <v>386</v>
@@ -4314,7 +4314,7 @@
         <v>291</v>
       </c>
       <c r="D95">
-        <v>499</v>
+        <v>722</v>
       </c>
       <c r="E95" t="s">
         <v>387</v>
@@ -4340,7 +4340,7 @@
         <v>268</v>
       </c>
       <c r="D96">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="E96" t="s">
         <v>377</v>
@@ -4366,7 +4366,7 @@
         <v>266</v>
       </c>
       <c r="D97">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E97" t="s">
         <v>388</v>
@@ -4386,7 +4386,7 @@
         <v>266</v>
       </c>
       <c r="D98">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="E98" t="s">
         <v>318</v>
@@ -4406,7 +4406,7 @@
         <v>277</v>
       </c>
       <c r="D99">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E99" t="s">
         <v>294</v>
@@ -4426,7 +4426,7 @@
         <v>265</v>
       </c>
       <c r="D100">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E100" t="s">
         <v>389</v>
@@ -4446,7 +4446,7 @@
         <v>279</v>
       </c>
       <c r="D101">
-        <v>153</v>
+        <v>282</v>
       </c>
       <c r="E101" t="s">
         <v>390</v>
@@ -4472,7 +4472,7 @@
         <v>292</v>
       </c>
       <c r="D102">
-        <v>28850</v>
+        <v>38251</v>
       </c>
       <c r="E102" t="s">
         <v>391</v>
@@ -4498,7 +4498,7 @@
         <v>293</v>
       </c>
       <c r="D103">
-        <v>382</v>
+        <v>614</v>
       </c>
       <c r="E103" t="s">
         <v>343</v>
@@ -4524,7 +4524,7 @@
         <v>270</v>
       </c>
       <c r="D104">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E104" t="s">
         <v>392</v>
@@ -4544,7 +4544,7 @@
         <v>263</v>
       </c>
       <c r="D105">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E105" t="s">
         <v>393</v>
@@ -4564,7 +4564,7 @@
         <v>294</v>
       </c>
       <c r="D106">
-        <v>768</v>
+        <v>1259</v>
       </c>
       <c r="E106" t="s">
         <v>394</v>
@@ -4590,7 +4590,7 @@
         <v>277</v>
       </c>
       <c r="D107">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
         <v>299</v>
@@ -4610,7 +4610,7 @@
         <v>276</v>
       </c>
       <c r="D108">
-        <v>317</v>
+        <v>495</v>
       </c>
       <c r="E108" t="s">
         <v>395</v>
@@ -4636,7 +4636,7 @@
         <v>295</v>
       </c>
       <c r="D109">
-        <v>6129</v>
+        <v>7471</v>
       </c>
       <c r="E109" t="s">
         <v>396</v>
@@ -4662,7 +4662,7 @@
         <v>296</v>
       </c>
       <c r="D110">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="E110" t="s">
         <v>397</v>
@@ -4682,7 +4682,7 @@
         <v>270</v>
       </c>
       <c r="D111">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="E111" t="s">
         <v>398</v>
@@ -4708,7 +4708,7 @@
         <v>267</v>
       </c>
       <c r="D112">
-        <v>310</v>
+        <v>423</v>
       </c>
       <c r="E112" t="s">
         <v>399</v>
@@ -4734,7 +4734,7 @@
         <v>267</v>
       </c>
       <c r="D113">
-        <v>127</v>
+        <v>211</v>
       </c>
       <c r="E113" t="s">
         <v>400</v>
@@ -4760,7 +4760,7 @@
         <v>267</v>
       </c>
       <c r="D114">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="E114" t="s">
         <v>401</v>
@@ -4780,7 +4780,7 @@
         <v>291</v>
       </c>
       <c r="D115">
-        <v>157</v>
+        <v>272</v>
       </c>
       <c r="E115" t="s">
         <v>402</v>
@@ -4806,7 +4806,7 @@
         <v>264</v>
       </c>
       <c r="D116">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="E116" t="s">
         <v>403</v>
@@ -4832,7 +4832,7 @@
         <v>293</v>
       </c>
       <c r="D117">
-        <v>474</v>
+        <v>719</v>
       </c>
       <c r="E117" t="s">
         <v>404</v>
@@ -4858,7 +4858,7 @@
         <v>266</v>
       </c>
       <c r="D118">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="E118" t="s">
         <v>405</v>
@@ -4884,7 +4884,7 @@
         <v>277</v>
       </c>
       <c r="D119">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E119" t="s">
         <v>309</v>
@@ -4910,7 +4910,7 @@
         <v>277</v>
       </c>
       <c r="D120">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E120" t="s">
         <v>406</v>
@@ -4930,7 +4930,7 @@
         <v>287</v>
       </c>
       <c r="D121">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="E121" t="s">
         <v>407</v>
@@ -4950,7 +4950,7 @@
         <v>264</v>
       </c>
       <c r="D122">
-        <v>145</v>
+        <v>224</v>
       </c>
       <c r="E122" t="s">
         <v>408</v>
@@ -4970,7 +4970,7 @@
         <v>277</v>
       </c>
       <c r="D123">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
         <v>269</v>
@@ -4990,7 +4990,7 @@
         <v>285</v>
       </c>
       <c r="D124">
-        <v>2011</v>
+        <v>2876</v>
       </c>
       <c r="E124" t="s">
         <v>409</v>
@@ -5016,7 +5016,7 @@
         <v>277</v>
       </c>
       <c r="D125">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E125" t="s">
         <v>355</v>
@@ -5036,7 +5036,7 @@
         <v>268</v>
       </c>
       <c r="D126">
-        <v>168</v>
+        <v>259</v>
       </c>
       <c r="E126" t="s">
         <v>410</v>
@@ -5062,7 +5062,7 @@
         <v>297</v>
       </c>
       <c r="D127">
-        <v>642</v>
+        <v>949</v>
       </c>
       <c r="E127" t="s">
         <v>411</v>
@@ -5088,7 +5088,7 @@
         <v>268</v>
       </c>
       <c r="D128">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="E128" t="s">
         <v>412</v>
@@ -5114,7 +5114,7 @@
         <v>270</v>
       </c>
       <c r="D129">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E129" t="s">
         <v>345</v>
@@ -5134,7 +5134,7 @@
         <v>298</v>
       </c>
       <c r="D130">
-        <v>526</v>
+        <v>688</v>
       </c>
       <c r="E130" t="s">
         <v>413</v>
@@ -5160,7 +5160,7 @@
         <v>262</v>
       </c>
       <c r="D131">
-        <v>140</v>
+        <v>224</v>
       </c>
       <c r="E131" t="s">
         <v>414</v>
@@ -5186,7 +5186,7 @@
         <v>265</v>
       </c>
       <c r="D132">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="E132" t="s">
         <v>415</v>
@@ -5212,7 +5212,7 @@
         <v>277</v>
       </c>
       <c r="D133">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E133" t="s">
         <v>267</v>
@@ -5232,7 +5232,7 @@
         <v>278</v>
       </c>
       <c r="D134">
-        <v>213</v>
+        <v>305</v>
       </c>
       <c r="E134" t="s">
         <v>334</v>
@@ -5258,7 +5258,7 @@
         <v>262</v>
       </c>
       <c r="D135">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E135" t="s">
         <v>416</v>
@@ -5298,7 +5298,7 @@
         <v>270</v>
       </c>
       <c r="D137">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E137" t="s">
         <v>298</v>
@@ -5318,7 +5318,7 @@
         <v>263</v>
       </c>
       <c r="D138">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="E138" t="s">
         <v>417</v>
@@ -5364,7 +5364,7 @@
         <v>279</v>
       </c>
       <c r="D140">
-        <v>280</v>
+        <v>417</v>
       </c>
       <c r="E140" t="s">
         <v>418</v>
@@ -5390,7 +5390,7 @@
         <v>266</v>
       </c>
       <c r="D141">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="E141" t="s">
         <v>419</v>
@@ -5410,7 +5410,7 @@
         <v>263</v>
       </c>
       <c r="D142">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="E142" t="s">
         <v>420</v>
@@ -5436,7 +5436,7 @@
         <v>265</v>
       </c>
       <c r="D143">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="E143" t="s">
         <v>365</v>
@@ -5456,7 +5456,7 @@
         <v>270</v>
       </c>
       <c r="D144">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="E144" t="s">
         <v>421</v>
@@ -5476,7 +5476,7 @@
         <v>263</v>
       </c>
       <c r="D145">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="E145" t="s">
         <v>422</v>
@@ -5496,7 +5496,7 @@
         <v>262</v>
       </c>
       <c r="D146">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="E146" t="s">
         <v>423</v>
@@ -5516,7 +5516,7 @@
         <v>294</v>
       </c>
       <c r="D147">
-        <v>358</v>
+        <v>531</v>
       </c>
       <c r="E147" t="s">
         <v>424</v>
@@ -5542,7 +5542,7 @@
         <v>262</v>
       </c>
       <c r="D148">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="E148" t="s">
         <v>425</v>
@@ -5562,7 +5562,7 @@
         <v>265</v>
       </c>
       <c r="D149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E149" t="s">
         <v>269</v>
@@ -5582,7 +5582,7 @@
         <v>268</v>
       </c>
       <c r="D150">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="E150" t="s">
         <v>426</v>
@@ -5602,7 +5602,7 @@
         <v>263</v>
       </c>
       <c r="D151">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="E151" t="s">
         <v>427</v>
@@ -5622,7 +5622,7 @@
         <v>270</v>
       </c>
       <c r="D152">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
         <v>388</v>
@@ -5648,7 +5648,7 @@
         <v>299</v>
       </c>
       <c r="D153">
-        <v>3127</v>
+        <v>3909</v>
       </c>
       <c r="E153" t="s">
         <v>428</v>
@@ -5674,7 +5674,7 @@
         <v>265</v>
       </c>
       <c r="D154">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="E154" t="s">
         <v>286</v>
@@ -5700,7 +5700,7 @@
         <v>273</v>
       </c>
       <c r="D155">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="E155" t="s">
         <v>429</v>
@@ -5720,7 +5720,7 @@
         <v>268</v>
       </c>
       <c r="D156">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="E156" t="s">
         <v>430</v>
@@ -5740,7 +5740,7 @@
         <v>273</v>
       </c>
       <c r="D157">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="E157" t="s">
         <v>431</v>
@@ -5766,7 +5766,7 @@
         <v>270</v>
       </c>
       <c r="D158">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E158" t="s">
         <v>288</v>
@@ -5786,7 +5786,7 @@
         <v>264</v>
       </c>
       <c r="D159">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="E159" t="s">
         <v>432</v>
@@ -5812,7 +5812,7 @@
         <v>270</v>
       </c>
       <c r="D160">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="E160" t="s">
         <v>433</v>
@@ -5838,7 +5838,7 @@
         <v>270</v>
       </c>
       <c r="D161">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E161" t="s">
         <v>289</v>
@@ -5858,7 +5858,7 @@
         <v>300</v>
       </c>
       <c r="D162">
-        <v>1793</v>
+        <v>2583</v>
       </c>
       <c r="E162" t="s">
         <v>434</v>
@@ -5884,7 +5884,7 @@
         <v>277</v>
       </c>
       <c r="D163">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E163" t="s">
         <v>435</v>
@@ -5904,7 +5904,7 @@
         <v>287</v>
       </c>
       <c r="D164">
-        <v>149</v>
+        <v>264</v>
       </c>
       <c r="E164" t="s">
         <v>436</v>
@@ -5930,7 +5930,7 @@
         <v>265</v>
       </c>
       <c r="D165">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E165" t="s">
         <v>437</v>
@@ -5950,7 +5950,7 @@
         <v>290</v>
       </c>
       <c r="D166">
-        <v>857</v>
+        <v>1448</v>
       </c>
       <c r="E166" t="s">
         <v>438</v>
@@ -5976,7 +5976,7 @@
         <v>279</v>
       </c>
       <c r="D167">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="E167" t="s">
         <v>439</v>
@@ -5996,7 +5996,7 @@
         <v>266</v>
       </c>
       <c r="D168">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E168" t="s">
         <v>286</v>
@@ -6016,7 +6016,7 @@
         <v>263</v>
       </c>
       <c r="D169">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="E169" t="s">
         <v>440</v>
@@ -6036,7 +6036,7 @@
         <v>263</v>
       </c>
       <c r="D170">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="E170" t="s">
         <v>441</v>
@@ -6056,7 +6056,7 @@
         <v>301</v>
       </c>
       <c r="D171">
-        <v>2215</v>
+        <v>3521</v>
       </c>
       <c r="E171" t="s">
         <v>442</v>
@@ -6082,7 +6082,7 @@
         <v>268</v>
       </c>
       <c r="D172">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="E172" t="s">
         <v>443</v>
@@ -6108,7 +6108,7 @@
         <v>268</v>
       </c>
       <c r="D173">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="E173" t="s">
         <v>325</v>
@@ -6128,7 +6128,7 @@
         <v>265</v>
       </c>
       <c r="D174">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E174" t="s">
         <v>302</v>
@@ -6148,7 +6148,7 @@
         <v>302</v>
       </c>
       <c r="D175">
-        <v>339</v>
+        <v>511</v>
       </c>
       <c r="E175" t="s">
         <v>444</v>
@@ -6174,7 +6174,7 @@
         <v>278</v>
       </c>
       <c r="D176">
-        <v>307</v>
+        <v>384</v>
       </c>
       <c r="E176" t="s">
         <v>445</v>
@@ -6200,7 +6200,7 @@
         <v>262</v>
       </c>
       <c r="D177">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="E177" t="s">
         <v>307</v>
@@ -6220,7 +6220,7 @@
         <v>287</v>
       </c>
       <c r="D178">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="E178" t="s">
         <v>446</v>
@@ -6246,7 +6246,7 @@
         <v>303</v>
       </c>
       <c r="D179">
-        <v>2193</v>
+        <v>2856</v>
       </c>
       <c r="E179" t="s">
         <v>447</v>
@@ -6272,7 +6272,7 @@
         <v>265</v>
       </c>
       <c r="D180">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E180" t="s">
         <v>406</v>
@@ -6292,7 +6292,7 @@
         <v>273</v>
       </c>
       <c r="D181">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="E181" t="s">
         <v>448</v>
@@ -6318,7 +6318,7 @@
         <v>304</v>
       </c>
       <c r="D182">
-        <v>395</v>
+        <v>660</v>
       </c>
       <c r="E182" t="s">
         <v>449</v>
@@ -6344,7 +6344,7 @@
         <v>284</v>
       </c>
       <c r="D183">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="E183" t="s">
         <v>450</v>
@@ -6370,7 +6370,7 @@
         <v>264</v>
       </c>
       <c r="D184">
-        <v>124</v>
+        <v>216</v>
       </c>
       <c r="E184" t="s">
         <v>451</v>
@@ -6390,7 +6390,7 @@
         <v>281</v>
       </c>
       <c r="D185">
-        <v>447</v>
+        <v>676</v>
       </c>
       <c r="E185" t="s">
         <v>452</v>
@@ -6416,7 +6416,7 @@
         <v>265</v>
       </c>
       <c r="D186">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="E186" t="s">
         <v>453</v>
@@ -6436,7 +6436,7 @@
         <v>268</v>
       </c>
       <c r="D187">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="E187" t="s">
         <v>454</v>
@@ -6456,7 +6456,7 @@
         <v>296</v>
       </c>
       <c r="D188">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="E188" t="s">
         <v>455</v>
@@ -6476,7 +6476,7 @@
         <v>281</v>
       </c>
       <c r="D189">
-        <v>819</v>
+        <v>1079</v>
       </c>
       <c r="E189" t="s">
         <v>456</v>
@@ -6502,7 +6502,7 @@
         <v>266</v>
       </c>
       <c r="D190">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E190" t="s">
         <v>299</v>
@@ -6522,7 +6522,7 @@
         <v>263</v>
       </c>
       <c r="D191">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E191" t="s">
         <v>457</v>
@@ -6542,7 +6542,7 @@
         <v>278</v>
       </c>
       <c r="D192">
-        <v>456</v>
+        <v>651</v>
       </c>
       <c r="E192" t="s">
         <v>458</v>
@@ -6568,7 +6568,7 @@
         <v>270</v>
       </c>
       <c r="D193">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E193" t="s">
         <v>310</v>
@@ -6588,7 +6588,7 @@
         <v>268</v>
       </c>
       <c r="D194">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E194" t="s">
         <v>459</v>
@@ -6608,7 +6608,7 @@
         <v>268</v>
       </c>
       <c r="D195">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="E195" t="s">
         <v>460</v>
@@ -6628,7 +6628,7 @@
         <v>278</v>
       </c>
       <c r="D196">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="E196" t="s">
         <v>461</v>
@@ -6654,7 +6654,7 @@
         <v>270</v>
       </c>
       <c r="D197">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="E197" t="s">
         <v>371</v>
@@ -6674,7 +6674,7 @@
         <v>277</v>
       </c>
       <c r="D198">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E198" t="s">
         <v>294</v>
@@ -6700,7 +6700,7 @@
         <v>287</v>
       </c>
       <c r="D199">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="E199" t="s">
         <v>462</v>
@@ -6726,7 +6726,7 @@
         <v>262</v>
       </c>
       <c r="D200">
-        <v>376</v>
+        <v>535</v>
       </c>
       <c r="E200" t="s">
         <v>463</v>
@@ -6752,7 +6752,7 @@
         <v>273</v>
       </c>
       <c r="D201">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="E201" t="s">
         <v>464</v>
@@ -6772,7 +6772,7 @@
         <v>305</v>
       </c>
       <c r="D202">
-        <v>322</v>
+        <v>405</v>
       </c>
       <c r="E202" t="s">
         <v>465</v>
@@ -6798,7 +6798,7 @@
         <v>263</v>
       </c>
       <c r="D203">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E203" t="s">
         <v>466</v>
@@ -6818,7 +6818,7 @@
         <v>266</v>
       </c>
       <c r="D204">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="E204" t="s">
         <v>467</v>
@@ -6838,7 +6838,7 @@
         <v>267</v>
       </c>
       <c r="D205">
-        <v>129</v>
+        <v>185</v>
       </c>
       <c r="E205" t="s">
         <v>468</v>
@@ -6858,7 +6858,7 @@
         <v>291</v>
       </c>
       <c r="D206">
-        <v>238</v>
+        <v>350</v>
       </c>
       <c r="E206" t="s">
         <v>469</v>
@@ -6884,7 +6884,7 @@
         <v>277</v>
       </c>
       <c r="D207">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E207" t="s">
         <v>415</v>
@@ -6904,7 +6904,7 @@
         <v>277</v>
       </c>
       <c r="D208">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E208" t="s">
         <v>288</v>
@@ -6924,7 +6924,7 @@
         <v>279</v>
       </c>
       <c r="D209">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="E209" t="s">
         <v>470</v>
@@ -6950,7 +6950,7 @@
         <v>277</v>
       </c>
       <c r="D210">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E210" t="s">
         <v>306</v>
@@ -6970,7 +6970,7 @@
         <v>279</v>
       </c>
       <c r="D211">
-        <v>176</v>
+        <v>233</v>
       </c>
       <c r="E211" t="s">
         <v>381</v>
@@ -6990,7 +6990,7 @@
         <v>262</v>
       </c>
       <c r="D212">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E212" t="s">
         <v>471</v>
@@ -7010,7 +7010,7 @@
         <v>306</v>
       </c>
       <c r="D213">
-        <v>1778</v>
+        <v>2511</v>
       </c>
       <c r="E213" t="s">
         <v>472</v>
@@ -7036,7 +7036,7 @@
         <v>265</v>
       </c>
       <c r="D214">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="E214" t="s">
         <v>473</v>
@@ -7056,7 +7056,7 @@
         <v>270</v>
       </c>
       <c r="D215">
-        <v>267</v>
+        <v>325</v>
       </c>
       <c r="E215" t="s">
         <v>474</v>
@@ -7082,7 +7082,7 @@
         <v>266</v>
       </c>
       <c r="D216">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E216" t="s">
         <v>475</v>
@@ -7102,7 +7102,7 @@
         <v>277</v>
       </c>
       <c r="D217">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E217" t="s">
         <v>294</v>
@@ -7128,7 +7128,7 @@
         <v>277</v>
       </c>
       <c r="D218">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E218" t="s">
         <v>284</v>
@@ -7148,7 +7148,7 @@
         <v>266</v>
       </c>
       <c r="D219">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E219" t="s">
         <v>476</v>
@@ -7168,7 +7168,7 @@
         <v>265</v>
       </c>
       <c r="D220">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E220" t="s">
         <v>477</v>
@@ -7188,7 +7188,7 @@
         <v>307</v>
       </c>
       <c r="D221">
-        <v>10237</v>
+        <v>14683</v>
       </c>
       <c r="E221" t="s">
         <v>478</v>
@@ -7214,7 +7214,7 @@
         <v>274</v>
       </c>
       <c r="D222">
-        <v>968</v>
+        <v>1503</v>
       </c>
       <c r="E222" t="s">
         <v>479</v>
@@ -7240,7 +7240,7 @@
         <v>265</v>
       </c>
       <c r="D223">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E223" t="s">
         <v>278</v>
@@ -7260,7 +7260,7 @@
         <v>266</v>
       </c>
       <c r="D224">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="E224" t="s">
         <v>347</v>
@@ -7280,7 +7280,7 @@
         <v>265</v>
       </c>
       <c r="D225">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E225" t="s">
         <v>305</v>
@@ -7300,7 +7300,7 @@
         <v>284</v>
       </c>
       <c r="D226">
-        <v>219</v>
+        <v>295</v>
       </c>
       <c r="E226" t="s">
         <v>311</v>
@@ -7326,7 +7326,7 @@
         <v>296</v>
       </c>
       <c r="D227">
-        <v>297</v>
+        <v>642</v>
       </c>
       <c r="E227" t="s">
         <v>480</v>
@@ -7352,7 +7352,7 @@
         <v>308</v>
       </c>
       <c r="D228">
-        <v>5393</v>
+        <v>9468</v>
       </c>
       <c r="E228" t="s">
         <v>481</v>
@@ -7378,7 +7378,7 @@
         <v>270</v>
       </c>
       <c r="D229">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="E229" t="s">
         <v>482</v>
@@ -7398,7 +7398,7 @@
         <v>262</v>
       </c>
       <c r="D230">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="E230" t="s">
         <v>431</v>
@@ -7418,7 +7418,7 @@
         <v>309</v>
       </c>
       <c r="D231">
-        <v>165</v>
+        <v>279</v>
       </c>
       <c r="E231" t="s">
         <v>483</v>
@@ -7444,7 +7444,7 @@
         <v>263</v>
       </c>
       <c r="D232">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E232" t="s">
         <v>310</v>
@@ -7464,7 +7464,7 @@
         <v>267</v>
       </c>
       <c r="D233">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="E233" t="s">
         <v>484</v>
@@ -7490,7 +7490,7 @@
         <v>263</v>
       </c>
       <c r="D234">
-        <v>173</v>
+        <v>224</v>
       </c>
       <c r="E234" t="s">
         <v>485</v>
@@ -7516,7 +7516,7 @@
         <v>305</v>
       </c>
       <c r="D235">
-        <v>246</v>
+        <v>391</v>
       </c>
       <c r="E235" t="s">
         <v>486</v>
@@ -7536,7 +7536,7 @@
         <v>281</v>
       </c>
       <c r="D236">
-        <v>293</v>
+        <v>515</v>
       </c>
       <c r="E236" t="s">
         <v>487</v>
@@ -7562,7 +7562,7 @@
         <v>278</v>
       </c>
       <c r="D237">
-        <v>463</v>
+        <v>558</v>
       </c>
       <c r="E237" t="s">
         <v>488</v>
@@ -7588,7 +7588,7 @@
         <v>276</v>
       </c>
       <c r="D238">
-        <v>291</v>
+        <v>385</v>
       </c>
       <c r="E238" t="s">
         <v>489</v>
@@ -7614,7 +7614,7 @@
         <v>287</v>
       </c>
       <c r="D239">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E239" t="s">
         <v>490</v>
@@ -7634,7 +7634,7 @@
         <v>267</v>
       </c>
       <c r="D240">
-        <v>152</v>
+        <v>231</v>
       </c>
       <c r="E240" t="s">
         <v>491</v>
@@ -7660,7 +7660,7 @@
         <v>291</v>
       </c>
       <c r="D241">
-        <v>1098</v>
+        <v>1698</v>
       </c>
       <c r="E241" t="s">
         <v>492</v>
@@ -7686,7 +7686,7 @@
         <v>297</v>
       </c>
       <c r="D242">
-        <v>184</v>
+        <v>279</v>
       </c>
       <c r="E242" t="s">
         <v>493</v>
@@ -7712,7 +7712,7 @@
         <v>265</v>
       </c>
       <c r="D243">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E243" t="s">
         <v>393</v>
@@ -7732,7 +7732,7 @@
         <v>278</v>
       </c>
       <c r="D244">
-        <v>339</v>
+        <v>565</v>
       </c>
       <c r="E244" t="s">
         <v>494</v>
@@ -7758,7 +7758,7 @@
         <v>266</v>
       </c>
       <c r="D245">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="E245" t="s">
         <v>495</v>
@@ -7784,7 +7784,7 @@
         <v>265</v>
       </c>
       <c r="D246">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="E246" t="s">
         <v>496</v>
@@ -7810,7 +7810,7 @@
         <v>310</v>
       </c>
       <c r="D247">
-        <v>1447</v>
+        <v>2490</v>
       </c>
       <c r="E247" t="s">
         <v>497</v>
@@ -7836,7 +7836,7 @@
         <v>296</v>
       </c>
       <c r="D248">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="E248" t="s">
         <v>498</v>
@@ -7862,7 +7862,7 @@
         <v>287</v>
       </c>
       <c r="D249">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="E249" t="s">
         <v>499</v>
@@ -7882,7 +7882,7 @@
         <v>279</v>
       </c>
       <c r="D250">
-        <v>219</v>
+        <v>318</v>
       </c>
       <c r="E250" t="s">
         <v>500</v>
@@ -7908,7 +7908,7 @@
         <v>284</v>
       </c>
       <c r="D251">
-        <v>120</v>
+        <v>179</v>
       </c>
       <c r="E251" t="s">
         <v>501</v>
@@ -7928,7 +7928,7 @@
         <v>277</v>
       </c>
       <c r="D252">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E252" t="s">
         <v>502</v>
@@ -7948,7 +7948,7 @@
         <v>270</v>
       </c>
       <c r="D253">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="E253" t="s">
         <v>503</v>
@@ -7968,7 +7968,7 @@
         <v>277</v>
       </c>
       <c r="D254">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E254" t="s">
         <v>466</v>
@@ -7994,7 +7994,7 @@
         <v>266</v>
       </c>
       <c r="D255">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="E255" t="s">
         <v>504</v>
